--- a/Code/Results/Cases/Case_9_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.9741358120843</v>
+        <v>11.77844527995824</v>
       </c>
       <c r="C2">
-        <v>7.454263794465049</v>
+        <v>8.150419964489734</v>
       </c>
       <c r="D2">
-        <v>5.033228686666106</v>
+        <v>5.005500790410424</v>
       </c>
       <c r="E2">
-        <v>15.35844342681993</v>
+        <v>15.3115336429396</v>
       </c>
       <c r="F2">
-        <v>28.77667972997912</v>
+        <v>25.83662001493943</v>
       </c>
       <c r="G2">
-        <v>41.51439195852281</v>
+        <v>35.97990026261761</v>
       </c>
       <c r="H2">
-        <v>1.950964239443352</v>
+        <v>1.877536048633497</v>
       </c>
       <c r="I2">
-        <v>3.371006453002756</v>
+        <v>3.174207095915659</v>
       </c>
       <c r="J2">
-        <v>13.11625950141707</v>
+        <v>12.23683877744877</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.54134159003078</v>
       </c>
       <c r="M2">
-        <v>10.84925737640066</v>
+        <v>13.04413701166139</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.88223511744978</v>
+        <v>11.12630782864637</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.05574943996632</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.20163233123942</v>
+        <v>11.06117885683939</v>
       </c>
       <c r="C3">
-        <v>7.104261313291499</v>
+        <v>7.636273996264481</v>
       </c>
       <c r="D3">
-        <v>4.987397306770099</v>
+        <v>4.926170538409055</v>
       </c>
       <c r="E3">
-        <v>14.39511631265033</v>
+        <v>14.38487107357614</v>
       </c>
       <c r="F3">
-        <v>27.80685996018989</v>
+        <v>25.16398291379386</v>
       </c>
       <c r="G3">
-        <v>39.98332307425987</v>
+        <v>35.01923698231252</v>
       </c>
       <c r="H3">
-        <v>2.187381468577818</v>
+        <v>2.100011763722282</v>
       </c>
       <c r="I3">
-        <v>3.577202027011479</v>
+        <v>3.349659669640193</v>
       </c>
       <c r="J3">
-        <v>12.89191892266185</v>
+        <v>12.08367685638272</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.53121314252959</v>
       </c>
       <c r="M3">
-        <v>10.24863104325038</v>
+        <v>12.78756919743494</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.0741380814727</v>
+        <v>10.50729705341134</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.23869474786631</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.69827710683021</v>
+        <v>10.59427853117099</v>
       </c>
       <c r="C4">
-        <v>6.883647553733249</v>
+        <v>7.309194301219869</v>
       </c>
       <c r="D4">
-        <v>4.957555092291975</v>
+        <v>4.876210451600847</v>
       </c>
       <c r="E4">
-        <v>13.77045109346431</v>
+        <v>13.78441214261156</v>
       </c>
       <c r="F4">
-        <v>27.19592411139993</v>
+        <v>24.74168774604627</v>
       </c>
       <c r="G4">
-        <v>39.01208856599304</v>
+        <v>34.41528685572929</v>
       </c>
       <c r="H4">
-        <v>2.337582877304061</v>
+        <v>2.241460589169558</v>
       </c>
       <c r="I4">
-        <v>3.708733961426782</v>
+        <v>3.461984939072003</v>
       </c>
       <c r="J4">
-        <v>12.75258725502265</v>
+        <v>11.98689837692337</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.51838452192967</v>
       </c>
       <c r="M4">
-        <v>9.861802414032866</v>
+        <v>12.64247531331188</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.553293179907</v>
+        <v>10.1085854692732</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.7119517120457</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.48267284591489</v>
+        <v>10.39462753526583</v>
       </c>
       <c r="C5">
-        <v>6.80046030972255</v>
+        <v>7.182493169622951</v>
       </c>
       <c r="D5">
-        <v>4.945144616897214</v>
+        <v>4.856469108581764</v>
       </c>
       <c r="E5">
-        <v>13.50594476507486</v>
+        <v>13.53043892237585</v>
       </c>
       <c r="F5">
-        <v>26.92096108235535</v>
+        <v>24.54848867330606</v>
       </c>
       <c r="G5">
-        <v>38.56867779976741</v>
+        <v>34.13192909426338</v>
       </c>
       <c r="H5">
-        <v>2.400360935649453</v>
+        <v>2.300577482307658</v>
       </c>
       <c r="I5">
-        <v>3.766348274448276</v>
+        <v>3.512094000163177</v>
       </c>
       <c r="J5">
-        <v>12.68758613165889</v>
+        <v>11.94026406225511</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.49916467008186</v>
       </c>
       <c r="M5">
-        <v>9.701527065297221</v>
+        <v>12.57671856600482</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.33600240381747</v>
+        <v>9.943138466600708</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.49202203480088</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.44256314844923</v>
+        <v>10.35773459560351</v>
       </c>
       <c r="C6">
-        <v>6.796548794333609</v>
+        <v>7.17280167800672</v>
       </c>
       <c r="D6">
-        <v>4.943295259496329</v>
+        <v>4.854324623932152</v>
       </c>
       <c r="E6">
-        <v>13.45955553546496</v>
+        <v>13.48609234850845</v>
       </c>
       <c r="F6">
-        <v>26.84768297724519</v>
+        <v>24.49313754382124</v>
       </c>
       <c r="G6">
-        <v>38.44538987144585</v>
+        <v>34.04325057547058</v>
       </c>
       <c r="H6">
-        <v>2.411205626082541</v>
+        <v>2.310758527773267</v>
       </c>
       <c r="I6">
-        <v>3.779511920822878</v>
+        <v>3.524551605922799</v>
       </c>
       <c r="J6">
-        <v>12.66715665715966</v>
+        <v>11.92450143227323</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.48083718094198</v>
       </c>
       <c r="M6">
-        <v>9.676905728883526</v>
+        <v>12.55385541004206</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.30086979341805</v>
+        <v>9.917409046767455</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.45626886050906</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.68508049753111</v>
+        <v>10.58332244516547</v>
       </c>
       <c r="C7">
-        <v>6.909366061644387</v>
+        <v>7.33373954440308</v>
       </c>
       <c r="D7">
-        <v>4.95807659115046</v>
+        <v>4.881116798831704</v>
       </c>
       <c r="E7">
-        <v>13.76167241756032</v>
+        <v>13.77612234620353</v>
       </c>
       <c r="F7">
-        <v>27.11823708883149</v>
+        <v>24.64124180072951</v>
       </c>
       <c r="G7">
-        <v>38.87339570917488</v>
+        <v>34.34953178802191</v>
       </c>
       <c r="H7">
-        <v>2.339346535460473</v>
+        <v>2.243521039358075</v>
       </c>
       <c r="I7">
-        <v>3.71885916249754</v>
+        <v>3.47416131409846</v>
       </c>
       <c r="J7">
-        <v>12.72561976727314</v>
+        <v>11.90953857525311</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.45956986849717</v>
       </c>
       <c r="M7">
-        <v>9.86572881044572</v>
+        <v>12.59264103870375</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.55389786937572</v>
+        <v>10.11045317832238</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.71150975172218</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.70114095872552</v>
+        <v>11.52765438627784</v>
       </c>
       <c r="C8">
-        <v>7.36850228429223</v>
+        <v>7.999611466590081</v>
       </c>
       <c r="D8">
-        <v>5.01890975478794</v>
+        <v>4.989994766314726</v>
       </c>
       <c r="E8">
-        <v>15.02673165083718</v>
+        <v>14.99199167336754</v>
       </c>
       <c r="F8">
-        <v>28.35185137303357</v>
+        <v>25.41462483574195</v>
       </c>
       <c r="G8">
-        <v>40.82548410989417</v>
+        <v>35.67148822295702</v>
       </c>
       <c r="H8">
-        <v>2.032617667715188</v>
+        <v>1.955738276187921</v>
       </c>
       <c r="I8">
-        <v>3.453121480218305</v>
+        <v>3.249850534505285</v>
       </c>
       <c r="J8">
-        <v>13.00557030126061</v>
+        <v>11.97858595857996</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.43270153772048</v>
       </c>
       <c r="M8">
-        <v>10.65349928663872</v>
+        <v>12.85525854129689</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.6130718951307</v>
+        <v>10.91944810589139</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.78133033069946</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.48089961171951</v>
+        <v>13.18126572857017</v>
       </c>
       <c r="C9">
-        <v>8.178430207528605</v>
+        <v>9.179858981693476</v>
       </c>
       <c r="D9">
-        <v>5.123151840953949</v>
+        <v>5.179738539597952</v>
       </c>
       <c r="E9">
-        <v>17.25323954572796</v>
+        <v>17.1345742600064</v>
       </c>
       <c r="F9">
-        <v>30.76138685418885</v>
+        <v>27.08756584393923</v>
       </c>
       <c r="G9">
-        <v>44.6115292914825</v>
+        <v>38.14817588407615</v>
       </c>
       <c r="H9">
-        <v>1.65038318080202</v>
+        <v>1.691968223705473</v>
       </c>
       <c r="I9">
-        <v>2.954850782514426</v>
+        <v>2.825510643801004</v>
       </c>
       <c r="J9">
-        <v>13.58541601219567</v>
+        <v>12.32849580665023</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.46048264709185</v>
       </c>
       <c r="M9">
-        <v>12.04371736013469</v>
+        <v>13.58035318825899</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.48608834948059</v>
+        <v>12.35181947482529</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.67441369335748</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.67560961122056</v>
+        <v>14.30377267569646</v>
       </c>
       <c r="C10">
-        <v>8.767548524768435</v>
+        <v>9.976164600108959</v>
       </c>
       <c r="D10">
-        <v>5.200574243343803</v>
+        <v>5.350162515668065</v>
       </c>
       <c r="E10">
-        <v>18.16421347129023</v>
+        <v>17.99386027396291</v>
       </c>
       <c r="F10">
-        <v>32.09990263381822</v>
+        <v>27.81604737647283</v>
       </c>
       <c r="G10">
-        <v>46.61520715216913</v>
+        <v>39.66497837733288</v>
       </c>
       <c r="H10">
-        <v>2.011723844575614</v>
+        <v>2.028109406786271</v>
       </c>
       <c r="I10">
-        <v>2.625185368658733</v>
+        <v>2.551675598705233</v>
       </c>
       <c r="J10">
-        <v>13.87455111757168</v>
+        <v>12.18618993469934</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.22815779979728</v>
       </c>
       <c r="M10">
-        <v>13.00145616001597</v>
+        <v>13.91576396103448</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.47628056579839</v>
+        <v>13.3268255464731</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.67164302455766</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.42871028668245</v>
+        <v>15.09018720916203</v>
       </c>
       <c r="C11">
-        <v>9.172479673358517</v>
+        <v>10.28851865774364</v>
       </c>
       <c r="D11">
-        <v>5.368640831952857</v>
+        <v>5.691360273570813</v>
       </c>
       <c r="E11">
-        <v>13.80694937945067</v>
+        <v>13.65171991369103</v>
       </c>
       <c r="F11">
-        <v>29.97888455820484</v>
+        <v>25.67859515017875</v>
       </c>
       <c r="G11">
-        <v>42.68867630823677</v>
+        <v>36.91681115451311</v>
       </c>
       <c r="H11">
-        <v>2.839813260730332</v>
+        <v>2.846309747008807</v>
       </c>
       <c r="I11">
-        <v>2.560028521095357</v>
+        <v>2.515647852491042</v>
       </c>
       <c r="J11">
-        <v>12.9919032561817</v>
+        <v>10.9316708113658</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.93516558545367</v>
       </c>
       <c r="M11">
-        <v>13.62912899603541</v>
+        <v>12.73354101542566</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.65093929237513</v>
+        <v>13.91941594131301</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.82363961375037</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.83977871604338</v>
+        <v>15.54113366261809</v>
       </c>
       <c r="C12">
-        <v>9.374867902805569</v>
+        <v>10.36839184159851</v>
       </c>
       <c r="D12">
-        <v>5.560359643567502</v>
+        <v>5.974107006778474</v>
       </c>
       <c r="E12">
-        <v>10.12846313177244</v>
+        <v>10.00107625636707</v>
       </c>
       <c r="F12">
-        <v>27.99217403677871</v>
+        <v>23.90326828308227</v>
       </c>
       <c r="G12">
-        <v>39.10932926242833</v>
+        <v>34.23838712508255</v>
       </c>
       <c r="H12">
-        <v>4.094474859552391</v>
+        <v>4.098661893828491</v>
       </c>
       <c r="I12">
-        <v>2.546688543077025</v>
+        <v>2.526693590313588</v>
       </c>
       <c r="J12">
-        <v>12.22941491034137</v>
+        <v>10.16497306483728</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.04914426601067</v>
       </c>
       <c r="M12">
-        <v>13.96460748613769</v>
+        <v>11.78259857284879</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.8921602259329</v>
+        <v>14.22383828550232</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.04596664446983</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.01377244229253</v>
+        <v>15.76308248593928</v>
       </c>
       <c r="C13">
-        <v>9.471321403764277</v>
+        <v>10.32325300449463</v>
       </c>
       <c r="D13">
-        <v>5.773622314750805</v>
+        <v>6.206926232750373</v>
       </c>
       <c r="E13">
-        <v>6.96021436161198</v>
+        <v>6.892080018582894</v>
       </c>
       <c r="F13">
-        <v>25.85032814448755</v>
+        <v>22.25503508244729</v>
       </c>
       <c r="G13">
-        <v>35.33382244918101</v>
+        <v>31.1364683627902</v>
       </c>
       <c r="H13">
-        <v>5.456746107655245</v>
+        <v>5.45282387610804</v>
       </c>
       <c r="I13">
-        <v>2.588909548915109</v>
+        <v>2.527049564600618</v>
       </c>
       <c r="J13">
-        <v>11.4723276921546</v>
+        <v>9.744892917407732</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.37564632333185</v>
       </c>
       <c r="M13">
-        <v>14.11190042522214</v>
+        <v>10.93522452102706</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.1398605444448</v>
+        <v>14.34206202547777</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.23181941664499</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.02914045533289</v>
+        <v>15.81640109202318</v>
       </c>
       <c r="C14">
-        <v>9.501124386623427</v>
+        <v>10.24262566263068</v>
       </c>
       <c r="D14">
-        <v>5.93794415869711</v>
+        <v>6.347920753354397</v>
       </c>
       <c r="E14">
-        <v>5.540794764927369</v>
+        <v>5.548326309715058</v>
       </c>
       <c r="F14">
-        <v>24.25047139954834</v>
+        <v>21.12918825387314</v>
       </c>
       <c r="G14">
-        <v>32.55068884426014</v>
+        <v>28.74259221558294</v>
       </c>
       <c r="H14">
-        <v>6.49195723287764</v>
+        <v>6.486977332902604</v>
       </c>
       <c r="I14">
-        <v>2.646095894938075</v>
+        <v>2.572457080906125</v>
       </c>
       <c r="J14">
-        <v>10.94292240088845</v>
+        <v>9.574530681448968</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.98560800630177</v>
       </c>
       <c r="M14">
-        <v>14.13405552591179</v>
+        <v>10.38583520986384</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.934485624181495</v>
+        <v>14.34383551535372</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.00617205245828</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.97858813317752</v>
+        <v>15.77739487244491</v>
       </c>
       <c r="C15">
-        <v>9.494175825239521</v>
+        <v>10.20483533441347</v>
       </c>
       <c r="D15">
-        <v>5.976820793080273</v>
+        <v>6.368958320958576</v>
       </c>
       <c r="E15">
-        <v>5.379548655175307</v>
+        <v>5.412231018512274</v>
       </c>
       <c r="F15">
-        <v>23.80355183959132</v>
+        <v>20.85460768431991</v>
       </c>
       <c r="G15">
-        <v>31.78811964257791</v>
+        <v>28.04730997527176</v>
       </c>
       <c r="H15">
-        <v>6.731648377230321</v>
+        <v>6.726083813473559</v>
       </c>
       <c r="I15">
-        <v>2.677735371621602</v>
+        <v>2.599358172763031</v>
       </c>
       <c r="J15">
-        <v>10.80708691002107</v>
+        <v>9.577246289370295</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.91117552315703</v>
       </c>
       <c r="M15">
-        <v>14.10042625508546</v>
+        <v>10.25982369894202</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.62556376465373</v>
+        <v>14.30540466189724</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.691257389518213</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.46775114068073</v>
+        <v>15.28444787746053</v>
       </c>
       <c r="C16">
-        <v>9.252904709785641</v>
+        <v>9.933118299855199</v>
       </c>
       <c r="D16">
-        <v>5.897022879275869</v>
+        <v>6.199573568815758</v>
       </c>
       <c r="E16">
-        <v>5.297151186945933</v>
+        <v>5.367476648701504</v>
       </c>
       <c r="F16">
-        <v>23.53101347201924</v>
+        <v>21.02616609125991</v>
       </c>
       <c r="G16">
-        <v>31.45186982186436</v>
+        <v>27.45634338370514</v>
       </c>
       <c r="H16">
-        <v>6.527373536043838</v>
+        <v>6.517919439382494</v>
       </c>
       <c r="I16">
-        <v>2.814376327596661</v>
+        <v>2.711081771800262</v>
       </c>
       <c r="J16">
-        <v>10.81150146309181</v>
+        <v>10.01372110870649</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.15565523489444</v>
       </c>
       <c r="M16">
-        <v>13.6924212041346</v>
+        <v>10.40080883561944</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.442125179440715</v>
+        <v>13.90223947630453</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.502315703149135</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.05684490948836</v>
+        <v>14.86761329766522</v>
       </c>
       <c r="C17">
-        <v>9.047601532582668</v>
+        <v>9.760303559777185</v>
       </c>
       <c r="D17">
-        <v>5.743430092642486</v>
+        <v>6.003299121726251</v>
       </c>
       <c r="E17">
-        <v>5.772314051410913</v>
+        <v>5.820815592430217</v>
       </c>
       <c r="F17">
-        <v>24.19267947968999</v>
+        <v>21.73111833730804</v>
       </c>
       <c r="G17">
-        <v>32.70660167749394</v>
+        <v>28.35994527200272</v>
       </c>
       <c r="H17">
-        <v>5.789302122034599</v>
+        <v>5.776494463753272</v>
       </c>
       <c r="I17">
-        <v>2.890383891419989</v>
+        <v>2.7748321184095</v>
       </c>
       <c r="J17">
-        <v>11.09460650533567</v>
+        <v>10.41781456103862</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.55441458173746</v>
       </c>
       <c r="M17">
-        <v>13.36000345083658</v>
+        <v>10.77572369537341</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.951877589203436</v>
+        <v>13.58368750702718</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.02022819572038</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.70092328590378</v>
+        <v>14.4820522589648</v>
       </c>
       <c r="C18">
-        <v>8.836106294838702</v>
+        <v>9.643768310910817</v>
       </c>
       <c r="D18">
-        <v>5.528755251313051</v>
+        <v>5.760102098265333</v>
       </c>
       <c r="E18">
-        <v>7.868128510462929</v>
+        <v>7.850560199534307</v>
       </c>
       <c r="F18">
-        <v>25.79311360167036</v>
+        <v>23.08889670459423</v>
       </c>
       <c r="G18">
-        <v>35.58729796217234</v>
+        <v>30.63951300624841</v>
       </c>
       <c r="H18">
-        <v>4.522931192090696</v>
+        <v>4.506389998422803</v>
       </c>
       <c r="I18">
-        <v>2.90777644030241</v>
+        <v>2.787457611269246</v>
       </c>
       <c r="J18">
-        <v>11.67956301870725</v>
+        <v>10.94274920857691</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.212159657306</v>
       </c>
       <c r="M18">
-        <v>13.05813981242366</v>
+        <v>11.46266604729998</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.17989475088472</v>
+        <v>13.30690486390177</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.30958852005104</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.4084341504256</v>
+        <v>14.14480980397423</v>
       </c>
       <c r="C19">
-        <v>8.697546136234164</v>
+        <v>9.639458842550322</v>
       </c>
       <c r="D19">
-        <v>5.335206909638259</v>
+        <v>5.530332363869627</v>
       </c>
       <c r="E19">
-        <v>11.5533312373134</v>
+        <v>11.47438201938578</v>
       </c>
       <c r="F19">
-        <v>27.91362742908377</v>
+        <v>24.79923849691459</v>
       </c>
       <c r="G19">
-        <v>39.36454223161214</v>
+        <v>33.65056191227104</v>
       </c>
       <c r="H19">
-        <v>2.992559004963406</v>
+        <v>2.971027221429897</v>
       </c>
       <c r="I19">
-        <v>2.891424690783726</v>
+        <v>2.777279315656631</v>
       </c>
       <c r="J19">
-        <v>12.4410542853267</v>
+        <v>11.54087731521657</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.02098219336165</v>
       </c>
       <c r="M19">
-        <v>12.8224571151573</v>
+        <v>12.3305560360973</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.06943013162443</v>
+        <v>13.10143376504261</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.23483115929941</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.34760418680088</v>
+        <v>13.99599944707479</v>
       </c>
       <c r="C20">
-        <v>8.686241348341305</v>
+        <v>9.862003119925348</v>
       </c>
       <c r="D20">
-        <v>5.185545138492186</v>
+        <v>5.310677864822973</v>
       </c>
       <c r="E20">
-        <v>17.89158861371175</v>
+        <v>17.73752292536708</v>
       </c>
       <c r="F20">
-        <v>31.54262487298287</v>
+        <v>27.55795190941912</v>
       </c>
       <c r="G20">
-        <v>45.72416039816402</v>
+        <v>38.79160183017271</v>
       </c>
       <c r="H20">
-        <v>1.91332980145265</v>
+        <v>1.938107066981642</v>
       </c>
       <c r="I20">
-        <v>2.744161418807819</v>
+        <v>2.659393733058595</v>
       </c>
       <c r="J20">
-        <v>13.72013178134118</v>
+        <v>12.33967238625459</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.23656925911329</v>
       </c>
       <c r="M20">
-        <v>12.77274409826486</v>
+        <v>13.7690152408672</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.21879167379725</v>
+        <v>13.09581686482934</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.41278689221888</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.18263201307849</v>
+        <v>14.7767973818501</v>
       </c>
       <c r="C21">
-        <v>9.094052692551404</v>
+        <v>10.37639875789827</v>
       </c>
       <c r="D21">
-        <v>5.228658290540328</v>
+        <v>5.45413065142981</v>
       </c>
       <c r="E21">
-        <v>19.42438625091691</v>
+        <v>19.22140097483656</v>
       </c>
       <c r="F21">
-        <v>33.06007373937148</v>
+        <v>27.95534368698471</v>
       </c>
       <c r="G21">
-        <v>48.1301547984068</v>
+        <v>41.51836921555012</v>
       </c>
       <c r="H21">
-        <v>2.218838560472006</v>
+        <v>2.216508235944454</v>
       </c>
       <c r="I21">
-        <v>2.536124644717854</v>
+        <v>2.586518649743374</v>
       </c>
       <c r="J21">
-        <v>14.13268605595197</v>
+        <v>11.46725756923576</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.99927880923867</v>
       </c>
       <c r="M21">
-        <v>13.43919321307973</v>
+        <v>13.96612638434485</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.34879437657974</v>
+        <v>13.76173678214047</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.54337147750513</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.72852125981382</v>
+        <v>15.29160929977359</v>
       </c>
       <c r="C22">
-        <v>9.334350063225468</v>
+        <v>10.66851461521378</v>
       </c>
       <c r="D22">
-        <v>5.258018656293754</v>
+        <v>5.559110498968666</v>
       </c>
       <c r="E22">
-        <v>20.11065345608185</v>
+        <v>19.87891353159375</v>
       </c>
       <c r="F22">
-        <v>33.95129651052674</v>
+        <v>28.11332594763537</v>
       </c>
       <c r="G22">
-        <v>49.52254740770059</v>
+        <v>43.23549792000062</v>
       </c>
       <c r="H22">
-        <v>2.404283469548287</v>
+        <v>2.384660721566075</v>
       </c>
       <c r="I22">
-        <v>2.69296250775565</v>
+        <v>2.709813522100995</v>
       </c>
       <c r="J22">
-        <v>14.37082625003517</v>
+        <v>10.84824339039659</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.80348926569004</v>
       </c>
       <c r="M22">
-        <v>13.86465367421551</v>
+        <v>14.05198559393589</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.92493503747169</v>
+        <v>14.18453459788297</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.11821544466707</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.4483483906187</v>
+        <v>15.02530364912209</v>
       </c>
       <c r="C23">
-        <v>9.181140146649515</v>
+        <v>10.49437995721727</v>
       </c>
       <c r="D23">
-        <v>5.240834628975215</v>
+        <v>5.490019854040534</v>
       </c>
       <c r="E23">
-        <v>19.7515530826729</v>
+        <v>19.53463607491668</v>
       </c>
       <c r="F23">
-        <v>33.54890626759939</v>
+        <v>28.16770186141386</v>
       </c>
       <c r="G23">
-        <v>48.9091914941407</v>
+        <v>42.31065080203258</v>
       </c>
       <c r="H23">
-        <v>2.306518514631836</v>
+        <v>2.296713751521114</v>
       </c>
       <c r="I23">
-        <v>2.604710556518327</v>
+        <v>2.63882574180111</v>
       </c>
       <c r="J23">
-        <v>14.27120364645051</v>
+        <v>11.3141401088404</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.97969226483817</v>
       </c>
       <c r="M23">
-        <v>13.63353941307673</v>
+        <v>14.08742949328311</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.61649704143838</v>
+        <v>13.95779414128588</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.81197455614623</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.32464433601519</v>
+        <v>13.96675686017043</v>
       </c>
       <c r="C24">
-        <v>8.629364127243541</v>
+        <v>9.811477313780257</v>
       </c>
       <c r="D24">
-        <v>5.175443001665483</v>
+        <v>5.28474964535723</v>
       </c>
       <c r="E24">
-        <v>18.3279572674171</v>
+        <v>18.16977854979125</v>
       </c>
       <c r="F24">
-        <v>31.87596004445278</v>
+        <v>27.83714391060142</v>
       </c>
       <c r="G24">
-        <v>46.32051068823721</v>
+        <v>39.27468658385674</v>
       </c>
       <c r="H24">
-        <v>1.927936499957727</v>
+        <v>1.952182964818717</v>
       </c>
       <c r="I24">
-        <v>2.72181208856885</v>
+        <v>2.634168807466165</v>
       </c>
       <c r="J24">
-        <v>13.8472246041667</v>
+        <v>12.44826227393576</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.39356261727899</v>
       </c>
       <c r="M24">
-        <v>12.73398889151082</v>
+        <v>13.93024504227776</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.40754746300331</v>
+        <v>13.06059478008888</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.60405021969176</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.00812209878086</v>
+        <v>12.74205118213562</v>
       </c>
       <c r="C25">
-        <v>8.007420778103921</v>
+        <v>8.924615667523186</v>
       </c>
       <c r="D25">
-        <v>5.098381460073009</v>
+        <v>5.133276202671854</v>
       </c>
       <c r="E25">
-        <v>16.67090750537664</v>
+        <v>16.57528906519764</v>
       </c>
       <c r="F25">
-        <v>30.00490865508896</v>
+        <v>26.58807634807711</v>
       </c>
       <c r="G25">
-        <v>43.40334485471142</v>
+        <v>37.24321132026851</v>
       </c>
       <c r="H25">
-        <v>1.618620855580309</v>
+        <v>1.565991654132322</v>
       </c>
       <c r="I25">
-        <v>3.103246640497199</v>
+        <v>2.956037805347747</v>
       </c>
       <c r="J25">
-        <v>13.38595064817271</v>
+        <v>12.27448218730878</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.41875084751238</v>
       </c>
       <c r="M25">
-        <v>11.69280237998202</v>
+        <v>13.33543495340777</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.00623420857158</v>
+        <v>11.99081986945851</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.18951965915604</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
